--- a/Federal/s8812-2021.xlsx
+++ b/Federal/s8812-2021.xlsx
@@ -573,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -635,6 +635,13 @@
       <right style="medium"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -761,7 +768,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -826,39 +833,47 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,46 +885,38 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -918,7 +925,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,19 +933,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -946,23 +941,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1045,8 +1036,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L96" activeCellId="0" sqref="L96:L109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1056,7 +1047,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="4.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="4.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="8.62"/>
@@ -1230,7 +1221,10 @@
       <c r="K11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="15" t="n">
+        <f aca="false">SUM(J8:J10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
@@ -1250,7 +1244,10 @@
       <c r="K12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="15" t="n">
+        <f aca="false">L7+L11</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
@@ -1308,7 +1305,10 @@
       <c r="I15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="12" t="n">
+        <f aca="false">J13-J14</f>
+        <v>0</v>
+      </c>
       <c r="K15" s="13"/>
       <c r="L15" s="14"/>
     </row>
@@ -1348,7 +1348,7 @@
       <c r="I17" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="16"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="13"/>
       <c r="L17" s="14"/>
     </row>
@@ -1370,7 +1370,10 @@
       <c r="K18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="15"/>
+      <c r="L18" s="15" t="n">
+        <f aca="false">500*J17</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
@@ -1390,7 +1393,10 @@
       <c r="K19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="15"/>
+      <c r="L19" s="15" t="n">
+        <f aca="false">L16+L18</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
@@ -1413,34 +1419,34 @@
       <c r="L20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="13"/>
       <c r="L21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="13"/>
       <c r="L22" s="14"/>
     </row>
@@ -1462,53 +1468,56 @@
       <c r="K23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="15"/>
+      <c r="L23" s="15" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(MAX(L12-L20,0),1000)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="13"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="13"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="13"/>
       <c r="L26" s="14"/>
     </row>
@@ -1530,7 +1539,10 @@
       <c r="K27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L27" s="15"/>
+      <c r="L27" s="15" t="n">
+        <f aca="false">L23*0.05</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
@@ -1550,21 +1562,24 @@
       <c r="K28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="15"/>
+      <c r="L28" s="15" t="n">
+        <f aca="false">MAX(L19-L27,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="13"/>
       <c r="L29" s="14"/>
     </row>
@@ -1589,56 +1604,56 @@
       <c r="L30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
@@ -1658,7 +1673,10 @@
       <c r="K35" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="8" t="n">
+        <f aca="false">MIN(L18,L28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="s">
@@ -1678,7 +1696,10 @@
       <c r="K36" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L36" s="15"/>
+      <c r="L36" s="15" t="n">
+        <f aca="false">L28-L35</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
@@ -1718,7 +1739,10 @@
       <c r="K38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L38" s="15"/>
+      <c r="L38" s="15" t="n">
+        <f aca="false">MIN(L35,L37)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="s">
@@ -1738,7 +1762,10 @@
       <c r="K39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="15"/>
+      <c r="L39" s="15" t="n">
+        <f aca="false">L36+L38</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="s">
@@ -1778,7 +1805,10 @@
       <c r="K41" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L41" s="15"/>
+      <c r="L41" s="15" t="n">
+        <f aca="false">L39-L40</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="s">
@@ -1798,70 +1828,76 @@
       <c r="K42" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="L42" s="15"/>
+      <c r="L42" s="15" t="n">
+        <f aca="false">MIN(L38,L41)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="21" t="s">
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="L43" s="27"/>
+      <c r="L43" s="29" t="n">
+        <f aca="false">L41-L42</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="s">
@@ -1901,74 +1937,77 @@
       <c r="K51" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L51" s="15"/>
+      <c r="L51" s="15" t="n">
+        <f aca="false">MIN(L50,L28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="33" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -1982,10 +2021,13 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="32" t="s">
+      <c r="K56" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="L56" s="33"/>
+      <c r="L56" s="15" t="n">
+        <f aca="false">L92</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="s">
@@ -2005,7 +2047,10 @@
       <c r="K57" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="L57" s="15"/>
+      <c r="L57" s="15" t="n">
+        <f aca="false">L51+L56</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="s">
@@ -2061,7 +2106,10 @@
       <c r="K60" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="L60" s="15"/>
+      <c r="L60" s="15" t="n">
+        <f aca="false">L57-L58</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
@@ -2081,75 +2129,81 @@
       <c r="K61" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L61" s="15"/>
+      <c r="L61" s="15" t="n">
+        <f aca="false">MIN(L51,L60)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="21" t="s">
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="L62" s="27"/>
+      <c r="L62" s="29" t="n">
+        <f aca="false">L60-L61</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
@@ -2169,7 +2223,10 @@
       <c r="K68" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L68" s="8"/>
+      <c r="L68" s="8" t="n">
+        <f aca="false">L28-L51</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
@@ -2209,23 +2266,26 @@
       <c r="K70" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="L70" s="15"/>
+      <c r="L70" s="15" t="n">
+        <f aca="false">1400 * J69</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
@@ -2245,7 +2305,10 @@
       <c r="K72" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="L72" s="15"/>
+      <c r="L72" s="15" t="n">
+        <f aca="false">MIN(L68,L70)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
@@ -2303,7 +2366,10 @@
       <c r="I75" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="J75" s="12"/>
+      <c r="J75" s="12" t="n">
+        <f aca="false">MAX(J73-2500,0)</f>
+        <v>0</v>
+      </c>
       <c r="K75" s="13"/>
       <c r="L75" s="14"/>
     </row>
@@ -2325,39 +2391,42 @@
       <c r="K76" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="L76" s="15"/>
+      <c r="L76" s="15" t="n">
+        <f aca="false">0.15*J75</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="36" t="s">
@@ -2430,7 +2499,7 @@
       <c r="I83" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="J83" s="42"/>
+      <c r="J83" s="12"/>
       <c r="K83" s="13"/>
       <c r="L83" s="14"/>
     </row>
@@ -2450,7 +2519,10 @@
       <c r="I84" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J84" s="42"/>
+      <c r="J84" s="12" t="n">
+        <f aca="false">J82+J83</f>
+        <v>0</v>
+      </c>
       <c r="K84" s="13"/>
       <c r="L84" s="14"/>
     </row>
@@ -2470,7 +2542,7 @@
       <c r="I85" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="J85" s="42"/>
+      <c r="J85" s="12"/>
       <c r="K85" s="13"/>
       <c r="L85" s="14"/>
     </row>
@@ -2492,91 +2564,100 @@
       <c r="K86" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="L86" s="43"/>
+      <c r="L86" s="15" t="n">
+        <f aca="false">MAX(J84-J85,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="21" t="s">
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="L87" s="44"/>
+      <c r="L87" s="29" t="n">
+        <f aca="false">MAX(L76,L86)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="45" t="s">
+      <c r="A88" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="45" t="s">
+      <c r="A91" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="B92" s="47" t="s">
+      <c r="B92" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="48" t="s">
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="L92" s="49"/>
+      <c r="L92" s="46" t="n">
+        <f aca="false">MIN(L72,L87)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="45" t="s">
+      <c r="A94" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="45" t="s">
+      <c r="A95" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
@@ -2596,7 +2677,7 @@
       <c r="K96" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="L96" s="50"/>
+      <c r="L96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
@@ -2616,7 +2697,7 @@
       <c r="K97" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="L97" s="43"/>
+      <c r="L97" s="15"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
@@ -2636,7 +2717,10 @@
       <c r="K98" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="L98" s="43"/>
+      <c r="L98" s="15" t="n">
+        <f aca="false">L96-L97</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
@@ -2656,7 +2740,7 @@
       <c r="K99" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="L99" s="43"/>
+      <c r="L99" s="15"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
@@ -2676,7 +2760,10 @@
       <c r="K100" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="L100" s="43"/>
+      <c r="L100" s="15" t="n">
+        <f aca="false">MIN(J13,L99)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
@@ -2696,7 +2783,10 @@
       <c r="K101" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="L101" s="43"/>
+      <c r="L101" s="15" t="n">
+        <f aca="false">L99-L100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
@@ -2716,7 +2806,7 @@
       <c r="K102" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="L102" s="43"/>
+      <c r="L102" s="15"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
@@ -2736,7 +2826,10 @@
       <c r="K103" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="L103" s="43"/>
+      <c r="L103" s="15" t="n">
+        <f aca="false">L12-L102</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
@@ -2756,7 +2849,10 @@
       <c r="K104" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="L104" s="43"/>
+      <c r="L104" s="15" t="n">
+        <f aca="false">L102</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="s">
@@ -2776,7 +2872,10 @@
       <c r="K105" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L105" s="43"/>
+      <c r="L105" s="15" t="e">
+        <f aca="false">ROUND(L103/L104,3)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
@@ -2796,7 +2895,10 @@
       <c r="K106" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="L106" s="43"/>
+      <c r="L106" s="15" t="n">
+        <f aca="false">L101*2000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="9" t="s">
@@ -2816,7 +2918,10 @@
       <c r="K107" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L107" s="43"/>
+      <c r="L107" s="15" t="e">
+        <f aca="false">L106*L105</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="9" t="s">
@@ -2836,27 +2941,33 @@
       <c r="K108" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="L108" s="43"/>
+      <c r="L108" s="15" t="e">
+        <f aca="false">L106-L107</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
-      <c r="K109" s="21" t="s">
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="L109" s="44"/>
+      <c r="L109" s="29" t="e">
+        <f aca="false">L98-L108</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
